--- a/Templates-V2/Refrigerants.xlsx
+++ b/Templates-V2/Refrigerants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LevelupESG\Scope 2\Templates without to - from\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmo\OneDrive\Desktop\Scope2\Batch-input-Page-main\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC0C8CA-768D-48F7-AA01-40C56CBC937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22ACB68-60FA-4B19-A01A-00C66BAC9013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{199154D2-C0D2-48ED-99FB-DC871D6581F2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="210">
   <si>
     <t>Reporting Year</t>
   </si>
@@ -645,46 +645,31 @@
     <t>company</t>
   </si>
   <si>
-    <t>Operating</t>
-  </si>
-  <si>
     <t>actual</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>reason 1</t>
-  </si>
-  <si>
-    <t>company1</t>
-  </si>
-  <si>
-    <t>company2</t>
-  </si>
-  <si>
-    <t>reason 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Equipment Type </t>
   </si>
   <si>
     <t>Refrigerant_Lost_kg</t>
   </si>
   <si>
-    <t>company3</t>
-  </si>
-  <si>
-    <t>estimated</t>
-  </si>
-  <si>
     <t>Screening method</t>
   </si>
   <si>
-    <t>Simplified Material Balance method</t>
-  </si>
-  <si>
-    <t>Disposal</t>
+    <t xml:space="preserve">From </t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Stating Date</t>
+  </si>
+  <si>
+    <t>Ending date</t>
   </si>
 </sst>
 </file>
@@ -771,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -802,11 +787,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -859,19 +853,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{272730EE-4AB9-476E-B910-89251F5C4184}" name="Table3" displayName="Table3" ref="A1:J1048575" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J1048575" xr:uid="{272730EE-4AB9-476E-B910-89251F5C4184}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{41DC593C-97F2-4BC6-A225-4A72CB338913}" name="Asset Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6006F3A4-16EC-4462-AEBB-9EA4BFDA5C1C}" name="Reporting Year" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{32F9A4A2-D213-427D-96AC-DA2B90479DF9}" name="Method" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B5716640-B15E-426B-9C06-7DF71552C581}" name="Equipment Type " dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{7BFCF30F-B382-4024-B8E2-F68DCBBC0176}" name="Purpose Stage" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{6F3CF4F7-8B15-4A95-83C9-5A7872503229}" name="Refrigerant Type" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{A297AE74-CFEC-4B6B-B1BB-898583DA37B9}" name="Refrigerant Recovered (kg)" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{16D763C4-B2B7-4EA4-AA0D-419D6999DE97}" name="Total Refrigerant Charge (kg)" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{BA08071B-27D3-4C97-908D-72A671B6522C}" name="Actual/Estimated" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{F5656F96-9F4A-441B-BBBA-F24093F93CD4}" name="Assumption basis" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{272730EE-4AB9-476E-B910-89251F5C4184}" name="Table3" displayName="Table3" ref="A1:L1048572" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L1048572" xr:uid="{272730EE-4AB9-476E-B910-89251F5C4184}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{41DC593C-97F2-4BC6-A225-4A72CB338913}" name="Asset Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{6006F3A4-16EC-4462-AEBB-9EA4BFDA5C1C}" name="Reporting Year" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{32F9A4A2-D213-427D-96AC-DA2B90479DF9}" name="Method" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B5716640-B15E-426B-9C06-7DF71552C581}" name="Equipment Type " dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{7BFCF30F-B382-4024-B8E2-F68DCBBC0176}" name="Purpose Stage" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{6F3CF4F7-8B15-4A95-83C9-5A7872503229}" name="Refrigerant Type" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{A297AE74-CFEC-4B6B-B1BB-898583DA37B9}" name="Refrigerant Recovered (kg)" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{16D763C4-B2B7-4EA4-AA0D-419D6999DE97}" name="Total Refrigerant Charge (kg)" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{BA08071B-27D3-4C97-908D-72A671B6522C}" name="Actual/Estimated" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{F5656F96-9F4A-441B-BBBA-F24093F93CD4}" name="Assumption basis" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E12366F7-465F-4CE3-8A9C-B026ECAD2EAB}" name="From " dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{39533350-4E0B-4F78-804A-C30C8E29F15C}" name="To" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1195,10 +1191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B06FB8-3023-4D7C-95C2-022AA01AE6EA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1213,12 +1209,14 @@
     <col min="8" max="8" width="40.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="9.109375" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="8"/>
+    <col min="11" max="11" width="21.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="8"/>
+    <col min="14" max="14" width="9.109375" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>187</v>
       </c>
@@ -1229,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -1249,8 +1247,14 @@
       <c r="J1" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="K1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>188</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>193</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>194</v>
@@ -1281,8 +1285,14 @@
       <c r="J2" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>200</v>
       </c>
@@ -1290,7 +1300,7 @@
         <v>2022</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>8</v>
@@ -1308,144 +1318,54 @@
         <v>30</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2023</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="8">
-        <v>10</v>
-      </c>
-      <c r="H4" s="8">
-        <v>30</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2023</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="8">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8">
-        <v>30</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2022</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="8">
-        <v>300</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6000</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="K3" s="10">
+        <v>45262</v>
+      </c>
+      <c r="L3" s="10">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QhWkm/1qYI0VGWS8/zEuAEUwl5D6rBC98eZw3j3H46PiKw7Km80WoactPqddg7O11ozUlxfOz5P1nTpbAXaLMA==" saltValue="KMLoOly6BmznJxuA3MLWXg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ORApNM11RwBbhP6bfaZm4eMFX7BkrB8bRs2/tWb5JQ2rgcqmZL+noPBe4EeCZFkjpSWYTY1RRjNHVPfYTpLp+g==" saltValue="KzxSFdRHr6T/iWEM/vNJ6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="rqNDtfZvFZJ4xha7egHCpbvIOscoPq3PTEXirAdz8MxrAoC/t2tGaaOn9MX+7wmcz31TbuQW4htCrhIfbJELKg==" saltValue="vTQPIwklblCtg2qMlt9IGg==" spinCount="100000" sqref="A4:B276 J5:J276 G5:H276 D4:D1108 F5:F1108 I5:I1248 F4:J4" name="Editable"/>
+    <protectedRange algorithmName="SHA-512" hashValue="rqNDtfZvFZJ4xha7egHCpbvIOscoPq3PTEXirAdz8MxrAoC/t2tGaaOn9MX+7wmcz31TbuQW4htCrhIfbJELKg==" saltValue="vTQPIwklblCtg2qMlt9IGg==" spinCount="100000" sqref="A4:B273 I4:I1245 G4:H273 D4:D1105 F4:F1105 J4:L273" name="Editable"/>
   </protectedRanges>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1106:E1048572" xr:uid="{68C4175B-FBC0-474D-B35F-026AE927CB27}">
+      <formula1>"Predetermined charge (Kg),Operating,Installation,Disposal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C505:C1048576" xr:uid="{0109A74E-3271-4C92-880D-C7030D9F8AB9}">
+      <formula1>"Simplified Material Balance method , Screening method"</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{1C93BFE6-DED7-4812-A577-D6C89CEA9E9F}">
       <formula1>2020</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1109:E1048575" xr:uid="{68C4175B-FBC0-474D-B35F-026AE927CB27}">
-      <formula1>"Predetermined charge (Kg),Operating,Installation,Disposal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048575" xr:uid="{0DA9280E-C39A-4F0C-AAF6-C8B94320A4B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048572" xr:uid="{0DA9280E-C39A-4F0C-AAF6-C8B94320A4B9}">
       <formula1>"estimated, actual"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H1048575" xr:uid="{2F04195F-9062-40A8-AC95-262CC43BEB60}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H1048572" xr:uid="{2F04195F-9062-40A8-AC95-262CC43BEB60}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C508:C1048576" xr:uid="{0109A74E-3271-4C92-880D-C7030D9F8AB9}">
-      <formula1>"Simplified Material Balance method , Screening method"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be edited" sqref="K1:XFD1048576" xr:uid="{C33F900E-3DA1-4B34-AD5F-9B08BFF6B89E}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be edited" sqref="M1:XFD1048576" xr:uid="{C33F900E-3DA1-4B34-AD5F-9B08BFF6B89E}">
       <formula1>FALSE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1108" xr:uid="{5702A21A-27EA-4D2E-B096-34EB281CFEB8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1105" xr:uid="{5702A21A-27EA-4D2E-B096-34EB281CFEB8}">
       <formula1>"Operating,Installation,Disposal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C507" xr:uid="{D24C5780-8039-44BB-A287-5EACD7C38906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C504" xr:uid="{D24C5780-8039-44BB-A287-5EACD7C38906}">
       <formula1>" Screening method,Simplified Material Balance method"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1461,13 +1381,13 @@
           <x14:formula1>
             <xm:f>data!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D1048575</xm:sqref>
+          <xm:sqref>D3:D1048572</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAA97645-C30F-4C81-980E-75C78B3AD933}">
           <x14:formula1>
             <xm:f>data!$D$2:$D$167</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1048575</xm:sqref>
+          <xm:sqref>F3:F1048572</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Templates-V2/Refrigerants.xlsx
+++ b/Templates-V2/Refrigerants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmo\OneDrive\Desktop\Scope2\Batch-input-Page-main\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LevelupESG\Scope-2\Templates-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22ACB68-60FA-4B19-A01A-00C66BAC9013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B3D1F-62F6-4403-9A4A-1175BB9FB45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{199154D2-C0D2-48ED-99FB-DC871D6581F2}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2301,6 +2301,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100316A6B2706F22F479EB96B4E836A2AA9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb14f50e3c0e0698014ac1b2b11cfd92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="952decf2-c70e-41dd-b7af-a901e5274ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e289b93c4a0db376190258ac9ef1386" ns3:_="">
     <xsd:import namespace="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
@@ -2456,15 +2465,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F45C1A8D-6430-42B4-8AFA-2DF1E7ADEBFF}">
   <ds:schemaRefs>
@@ -2482,6 +2482,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D7ADFE-BF7D-420E-A423-11A4A65E787B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA36FA71-57A7-407E-A93F-D63C8E900771}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2497,12 +2505,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D7ADFE-BF7D-420E-A423-11A4A65E787B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Templates-V2/Refrigerants.xlsx
+++ b/Templates-V2/Refrigerants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LevelupESG\Scope-2\Templates-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B3D1F-62F6-4403-9A4A-1175BB9FB45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC39442-A0CA-4160-916D-27ACF369CE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{199154D2-C0D2-48ED-99FB-DC871D6581F2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
   <si>
     <t>Reporting Year</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Refrigerant Type</t>
   </si>
   <si>
-    <t>Refrigerant Recovered (kg)</t>
-  </si>
-  <si>
     <t>Total Refrigerant Charge (kg)</t>
   </si>
   <si>
@@ -633,9 +630,6 @@
     <t>Enter the type of refrigerant used</t>
   </si>
   <si>
-    <t>Enter the amount of refrigerant recovered in kilograms</t>
-  </si>
-  <si>
     <t>Enter the total refrigerant charge of the equipment in kilograms</t>
   </si>
   <si>
@@ -646,9 +640,6 @@
   </si>
   <si>
     <t>actual</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t xml:space="preserve">Equipment Type </t>
@@ -794,9 +785,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -808,7 +810,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -853,21 +854,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{272730EE-4AB9-476E-B910-89251F5C4184}" name="Table3" displayName="Table3" ref="A1:L1048572" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L1048572" xr:uid="{272730EE-4AB9-476E-B910-89251F5C4184}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{41DC593C-97F2-4BC6-A225-4A72CB338913}" name="Asset Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{6006F3A4-16EC-4462-AEBB-9EA4BFDA5C1C}" name="Reporting Year" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{32F9A4A2-D213-427D-96AC-DA2B90479DF9}" name="Method" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{B5716640-B15E-426B-9C06-7DF71552C581}" name="Equipment Type " dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{7BFCF30F-B382-4024-B8E2-F68DCBBC0176}" name="Purpose Stage" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{6F3CF4F7-8B15-4A95-83C9-5A7872503229}" name="Refrigerant Type" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{A297AE74-CFEC-4B6B-B1BB-898583DA37B9}" name="Refrigerant Recovered (kg)" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{16D763C4-B2B7-4EA4-AA0D-419D6999DE97}" name="Total Refrigerant Charge (kg)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{BA08071B-27D3-4C97-908D-72A671B6522C}" name="Actual/Estimated" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{F5656F96-9F4A-441B-BBBA-F24093F93CD4}" name="Assumption basis" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{E12366F7-465F-4CE3-8A9C-B026ECAD2EAB}" name="From " dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{39533350-4E0B-4F78-804A-C30C8E29F15C}" name="To" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{272730EE-4AB9-476E-B910-89251F5C4184}" name="Table3" displayName="Table3" ref="A1:K1048572" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:K1048572" xr:uid="{272730EE-4AB9-476E-B910-89251F5C4184}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{41DC593C-97F2-4BC6-A225-4A72CB338913}" name="Asset Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{6006F3A4-16EC-4462-AEBB-9EA4BFDA5C1C}" name="Reporting Year" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{32F9A4A2-D213-427D-96AC-DA2B90479DF9}" name="Method" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B5716640-B15E-426B-9C06-7DF71552C581}" name="Equipment Type " dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{7BFCF30F-B382-4024-B8E2-F68DCBBC0176}" name="Purpose Stage" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{6F3CF4F7-8B15-4A95-83C9-5A7872503229}" name="Refrigerant Type" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{16D763C4-B2B7-4EA4-AA0D-419D6999DE97}" name="Total Refrigerant Charge (kg)" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{BA08071B-27D3-4C97-908D-72A671B6522C}" name="Actual/Estimated" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{F5656F96-9F4A-441B-BBBA-F24093F93CD4}" name="Assumption basis" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E12366F7-465F-4CE3-8A9C-B026ECAD2EAB}" name="From " dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{39533350-4E0B-4F78-804A-C30C8E29F15C}" name="To" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1191,10 +1191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B06FB8-3023-4D7C-95C2-022AA01AE6EA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1205,20 +1205,19 @@
     <col min="4" max="4" width="26" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.21875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="8"/>
-    <col min="14" max="14" width="9.109375" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="8"/>
+    <col min="7" max="7" width="40.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="8"/>
+    <col min="13" max="13" width="9.109375" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1227,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -1239,110 +1238,112 @@
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="J2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="B3" s="8">
         <v>2022</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="8">
-        <v>10</v>
-      </c>
-      <c r="H3" s="8">
         <v>30</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>202</v>
+      <c r="H3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="10">
+        <v>45262</v>
       </c>
       <c r="K3" s="10">
-        <v>45262</v>
-      </c>
-      <c r="L3" s="10">
         <v>45290</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="6"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ORApNM11RwBbhP6bfaZm4eMFX7BkrB8bRs2/tWb5JQ2rgcqmZL+noPBe4EeCZFkjpSWYTY1RRjNHVPfYTpLp+g==" saltValue="KzxSFdRHr6T/iWEM/vNJ6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r0jUp3JegkbU7hRmwDqsUJjCANBPWxD6B1bJRJBBiRUOnPGa58Urwp7gv+KpWuLy8XUYmrGw5q8gYd9ukzH05w==" saltValue="zE9GbHMEtQREgz7fhGx6Rg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="rqNDtfZvFZJ4xha7egHCpbvIOscoPq3PTEXirAdz8MxrAoC/t2tGaaOn9MX+7wmcz31TbuQW4htCrhIfbJELKg==" saltValue="vTQPIwklblCtg2qMlt9IGg==" spinCount="100000" sqref="A4:B273 I4:I1245 G4:H273 D4:D1105 F4:F1105 J4:L273" name="Editable"/>
+    <protectedRange algorithmName="SHA-512" hashValue="rqNDtfZvFZJ4xha7egHCpbvIOscoPq3PTEXirAdz8MxrAoC/t2tGaaOn9MX+7wmcz31TbuQW4htCrhIfbJELKg==" saltValue="vTQPIwklblCtg2qMlt9IGg==" spinCount="100000" sqref="A4:B273 G14:G273 H12 D4:D1105 F4:F1105 I4:K273 G4:G12 H4:H11 H13:H1245" name="Editable"/>
   </protectedRanges>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I11 I13:I1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H1= "actual"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>#REF!= "actual"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1106:E1048572" xr:uid="{68C4175B-FBC0-474D-B35F-026AE927CB27}">
       <formula1>"Predetermined charge (Kg),Operating,Installation,Disposal"</formula1>
@@ -1353,13 +1354,10 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{1C93BFE6-DED7-4812-A577-D6C89CEA9E9F}">
       <formula1>2020</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048572" xr:uid="{0DA9280E-C39A-4F0C-AAF6-C8B94320A4B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048572" xr:uid="{0DA9280E-C39A-4F0C-AAF6-C8B94320A4B9}">
       <formula1>"estimated, actual"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H1048572" xr:uid="{2F04195F-9062-40A8-AC95-262CC43BEB60}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be edited" sqref="M1:XFD1048576" xr:uid="{C33F900E-3DA1-4B34-AD5F-9B08BFF6B89E}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be edited" sqref="L1:XFD1048576" xr:uid="{C33F900E-3DA1-4B34-AD5F-9B08BFF6B89E}">
       <formula1>FALSE</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1105" xr:uid="{5702A21A-27EA-4D2E-B096-34EB281CFEB8}">
@@ -1367,6 +1365,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C504" xr:uid="{D24C5780-8039-44BB-A287-5EACD7C38906}">
       <formula1>" Screening method,Simplified Material Balance method"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12 G14:G1048572 H12" xr:uid="{2F04195F-9062-40A8-AC95-262CC43BEB60}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1412,879 +1413,879 @@
   <sheetData>
     <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
